--- a/demo/1azg_low_scoring_example.xlsx
+++ b/demo/1azg_low_scoring_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biu365-my.sharepoint.com/personal/drorimi2_biu_ac_il/Documents/Desktop/article/final_github/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drorimi2\AppData\Roaming\MobaXterm\slash\RemoteFiles\395858_2_51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{67E2249B-E0A2-4B78-9479-ABF50757E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EF5CAE-5293-4E5A-92D9-119C4875A4E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0AC2F9-613A-486F-A390-62CB3C87C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{7C7B52EB-D543-43DF-9A9A-49440DDDB5A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7C7B52EB-D543-43DF-9A9A-49440DDDB5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Restraints file</t>
   </si>
@@ -56,9 +56,6 @@
     <t>wi</t>
   </si>
   <si>
-    <t>wj</t>
-  </si>
-  <si>
     <t>dij</t>
   </si>
   <si>
@@ -75,6 +72,15 @@
   </si>
   <si>
     <t>sl</t>
+  </si>
+  <si>
+    <t>Lx=</t>
+  </si>
+  <si>
+    <t>Ly=</t>
+  </si>
+  <si>
+    <t>Lz=</t>
   </si>
 </sst>
 </file>
@@ -449,132 +455,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD615DA7-E8C9-4649-94AF-96EB0269D5E8}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.31640625" customWidth="1"/>
-    <col min="2" max="4" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>23.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
+      <c r="B8">
+        <v>22.6567287445068</v>
+      </c>
+      <c r="C8">
+        <v>57.0656929016113</v>
+      </c>
+      <c r="D8">
+        <v>18.141098022460898</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G8">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>22.6567287445068</v>
-      </c>
-      <c r="C4">
-        <v>57.0656929016113</v>
-      </c>
-      <c r="D4">
-        <v>18.141098022460898</v>
-      </c>
-      <c r="E4">
+      <c r="B9">
+        <v>22.6419582366943</v>
+      </c>
+      <c r="C9">
+        <v>61.820751190185497</v>
+      </c>
+      <c r="D9">
+        <v>19.912574768066399</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G9">
+        <v>2.0910000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>22.7640991210937</v>
+      </c>
+      <c r="C10">
+        <v>54.624542236328097</v>
+      </c>
+      <c r="D10">
+        <v>15.768724441528301</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="G4">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="H4">
-        <v>2.0640000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>22.6419582366943</v>
-      </c>
-      <c r="C5">
-        <v>61.820751190185497</v>
-      </c>
-      <c r="D5">
-        <v>19.912574768066399</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="G5">
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="H5">
-        <v>2.0910000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>22.7640991210937</v>
-      </c>
-      <c r="C6">
-        <v>54.624542236328097</v>
-      </c>
-      <c r="D6">
-        <v>15.768724441528301</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
+      <c r="F10">
         <v>0.36363636363636359</v>
       </c>
-      <c r="G6">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="H6">
+      <c r="G10">
         <v>2.4289999999999998</v>
       </c>
     </row>
